--- a/WBS.xlsx
+++ b/WBS.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hanna\Desktop\MultiplexTeamProject\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\javawork\MultiplexTeamProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D782877C-7263-491B-B577-4AC85447D78C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A192C518-4D1C-459C-BEE1-3BB13BDFB4A1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14160" yWindow="3900" windowWidth="13230" windowHeight="9225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="WBS" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="34">
   <si>
     <t>태스크</t>
   </si>
@@ -127,6 +127,10 @@
   </si>
   <si>
     <t xml:space="preserve">  QC 및 피드백</t>
+  </si>
+  <si>
+    <t>진행중</t>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -623,10 +627,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -643,6 +643,10 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -860,110 +864,110 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BG1028"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="39.33203125" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" customWidth="1"/>
+    <col min="1" max="1" width="39.28515625" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" customWidth="1"/>
     <col min="3" max="3" width="12" customWidth="1"/>
-    <col min="4" max="4" width="13.44140625" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" customWidth="1"/>
     <col min="5" max="5" width="15" customWidth="1"/>
-    <col min="6" max="7" width="8.6640625" customWidth="1"/>
-    <col min="8" max="57" width="4.5546875" customWidth="1"/>
-    <col min="58" max="58" width="4.6640625" customWidth="1"/>
+    <col min="6" max="7" width="8.7109375" customWidth="1"/>
+    <col min="8" max="57" width="4.5703125" customWidth="1"/>
+    <col min="58" max="58" width="4.7109375" customWidth="1"/>
     <col min="59" max="59" width="5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:59" ht="16.5" customHeight="1">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="68" t="s">
+      <c r="B1" s="66" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="68" t="s">
+      <c r="C1" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="68" t="s">
+      <c r="D1" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="68" t="s">
+      <c r="E1" s="66" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="68" t="s">
+      <c r="F1" s="66" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="70" t="s">
+      <c r="G1" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="75" t="s">
+      <c r="H1" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="73"/>
-      <c r="J1" s="73"/>
-      <c r="K1" s="73"/>
-      <c r="L1" s="73"/>
-      <c r="M1" s="73"/>
-      <c r="N1" s="73"/>
-      <c r="O1" s="73"/>
-      <c r="P1" s="73"/>
-      <c r="Q1" s="73"/>
-      <c r="R1" s="73"/>
-      <c r="S1" s="73"/>
-      <c r="T1" s="73"/>
-      <c r="U1" s="73"/>
-      <c r="V1" s="73"/>
-      <c r="W1" s="73"/>
-      <c r="X1" s="73"/>
-      <c r="Y1" s="73"/>
-      <c r="Z1" s="73"/>
-      <c r="AA1" s="73"/>
-      <c r="AB1" s="74"/>
-      <c r="AC1" s="72" t="s">
+      <c r="I1" s="71"/>
+      <c r="J1" s="71"/>
+      <c r="K1" s="71"/>
+      <c r="L1" s="71"/>
+      <c r="M1" s="71"/>
+      <c r="N1" s="71"/>
+      <c r="O1" s="71"/>
+      <c r="P1" s="71"/>
+      <c r="Q1" s="71"/>
+      <c r="R1" s="71"/>
+      <c r="S1" s="71"/>
+      <c r="T1" s="71"/>
+      <c r="U1" s="71"/>
+      <c r="V1" s="71"/>
+      <c r="W1" s="71"/>
+      <c r="X1" s="71"/>
+      <c r="Y1" s="71"/>
+      <c r="Z1" s="71"/>
+      <c r="AA1" s="71"/>
+      <c r="AB1" s="72"/>
+      <c r="AC1" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="AD1" s="73"/>
-      <c r="AE1" s="73"/>
-      <c r="AF1" s="73"/>
-      <c r="AG1" s="73"/>
-      <c r="AH1" s="73"/>
-      <c r="AI1" s="73"/>
-      <c r="AJ1" s="73"/>
-      <c r="AK1" s="73"/>
-      <c r="AL1" s="73"/>
-      <c r="AM1" s="73"/>
-      <c r="AN1" s="73"/>
-      <c r="AO1" s="73"/>
-      <c r="AP1" s="73"/>
-      <c r="AQ1" s="73"/>
-      <c r="AR1" s="73"/>
-      <c r="AS1" s="73"/>
-      <c r="AT1" s="73"/>
-      <c r="AU1" s="73"/>
-      <c r="AV1" s="73"/>
-      <c r="AW1" s="73"/>
-      <c r="AX1" s="73"/>
-      <c r="AY1" s="73"/>
-      <c r="AZ1" s="73"/>
-      <c r="BA1" s="73"/>
-      <c r="BB1" s="73"/>
-      <c r="BC1" s="73"/>
-      <c r="BD1" s="73"/>
-      <c r="BE1" s="73"/>
-      <c r="BF1" s="73"/>
-      <c r="BG1" s="74"/>
+      <c r="AD1" s="71"/>
+      <c r="AE1" s="71"/>
+      <c r="AF1" s="71"/>
+      <c r="AG1" s="71"/>
+      <c r="AH1" s="71"/>
+      <c r="AI1" s="71"/>
+      <c r="AJ1" s="71"/>
+      <c r="AK1" s="71"/>
+      <c r="AL1" s="71"/>
+      <c r="AM1" s="71"/>
+      <c r="AN1" s="71"/>
+      <c r="AO1" s="71"/>
+      <c r="AP1" s="71"/>
+      <c r="AQ1" s="71"/>
+      <c r="AR1" s="71"/>
+      <c r="AS1" s="71"/>
+      <c r="AT1" s="71"/>
+      <c r="AU1" s="71"/>
+      <c r="AV1" s="71"/>
+      <c r="AW1" s="71"/>
+      <c r="AX1" s="71"/>
+      <c r="AY1" s="71"/>
+      <c r="AZ1" s="71"/>
+      <c r="BA1" s="71"/>
+      <c r="BB1" s="71"/>
+      <c r="BC1" s="71"/>
+      <c r="BD1" s="71"/>
+      <c r="BE1" s="71"/>
+      <c r="BF1" s="71"/>
+      <c r="BG1" s="72"/>
     </row>
     <row r="2" spans="1:59" ht="16.5" customHeight="1">
-      <c r="A2" s="67"/>
-      <c r="B2" s="69"/>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="69"/>
-      <c r="F2" s="69"/>
-      <c r="G2" s="71"/>
+      <c r="A2" s="75"/>
+      <c r="B2" s="67"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="69"/>
       <c r="H2" s="1">
         <v>9</v>
       </c>
@@ -1540,19 +1544,25 @@
       <c r="A9" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="13"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="15"/>
+      <c r="B9" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="52" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="15">
+        <v>43816</v>
+      </c>
       <c r="E9" s="15"/>
       <c r="F9" s="28"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="9"/>
-      <c r="L9" s="9"/>
-      <c r="M9" s="9"/>
-      <c r="N9" s="9"/>
+      <c r="G9" s="51"/>
+      <c r="H9" s="30"/>
+      <c r="I9" s="30"/>
+      <c r="J9" s="30"/>
+      <c r="K9" s="30"/>
+      <c r="L9" s="30"/>
+      <c r="M9" s="30"/>
+      <c r="N9" s="23"/>
       <c r="O9" s="9"/>
       <c r="P9" s="9"/>
       <c r="Q9" s="9"/>
